--- a/va_facility_data_2025-02-20/South Jordan VA Clinic - Facility Data.xlsx"; filename*=UTF-8''South%20Jordan%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/South Jordan VA Clinic - Facility Data.xlsx"; filename*=UTF-8''South%20Jordan%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R98755195369a432e9f9aee95aac7ed19"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rc44cc0bb5359499ea6f7ee7cd642e75f"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R6446e8abfbbb4b3198edeaaab1a9817c"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rcc0e420e7db740cb8e68eb9b896e9b31"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R7152f07b7daa4ddb9c82e89ecaef480a"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R267cf9993c624a25a8f7e1b8af03e092"/>
   </x:sheets>
 </x:workbook>
 </file>
